--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IP 320 MNIN\Desktop\html source\BirthDay Wisher\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anil Kumar Gupta\Documents\GitHub\Automatic-BirthDay-Wisher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA17A68-8FA6-49FE-8544-D7C5BA435484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06990B01-2BBE-40D6-8D76-7FD4FA3A3532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Happy bday bhen</t>
-  </si>
-  <si>
-    <t>2019,2021,2021</t>
   </si>
   <si>
     <t>Happy bday bhanje</t>
@@ -102,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -167,7 +164,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -475,15 +472,16 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -526,10 +524,10 @@
         <v>2019</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -537,7 +535,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2">
         <v>43963</v>
@@ -549,10 +547,10 @@
         <v>2019</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -560,7 +558,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2">
         <v>43970</v>
@@ -568,14 +566,14 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
+      <c r="F4">
+        <v>2019</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -583,22 +581,22 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
         <v>44104</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>2019</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -606,22 +604,22 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2">
         <v>43988</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>2019</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -629,19 +627,19 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2">
         <v>43831</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7">
         <v>2019</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
